--- a/scenario/scenario-01.xlsx
+++ b/scenario/scenario-01.xlsx
@@ -1,30 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://darden44-my.sharepoint.com/personal/xub4jj_darden_virginia_edu/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{16470F8F-80B1-4E1C-8ED1-6D345723032B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02FD22AE-1DD2-4BA5-974E-AE0C1657BD8A}"/>
+  <xr:revisionPtr revIDLastSave="83" documentId="8_{16470F8F-80B1-4E1C-8ED1-6D345723032B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EFBB716A-E80A-4D9F-9289-080F948B9713}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{1D6AF3A1-B5C0-4BC3-821B-FB71BD8AFF1A}"/>
+    <workbookView xWindow="19090" yWindow="-1610" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{1D6AF3A1-B5C0-4BC3-821B-FB71BD8AFF1A}"/>
   </bookViews>
   <sheets>
-    <sheet name="HPI Score" sheetId="4" r:id="rId1"/>
-    <sheet name="SNH Score" sheetId="5" r:id="rId2"/>
-    <sheet name="Sensitivity 1" sheetId="7" r:id="rId3"/>
-    <sheet name="Spider" sheetId="3" state="hidden" r:id="rId4"/>
+    <sheet name="Scenario Description" sheetId="8" r:id="rId1"/>
+    <sheet name="HPI Score" sheetId="4" r:id="rId2"/>
+    <sheet name="SNH Score" sheetId="5" r:id="rId3"/>
+    <sheet name="Sensitivity 1" sheetId="9" r:id="rId4"/>
+    <sheet name="Spider" sheetId="3" state="hidden" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
     <definedName name="PalisadeReportWorkbookCreatedBy">"PrecisionTree"</definedName>
-    <definedName name="PalisadeReportWorksheetCreatedBy" localSheetId="3">"PrecisionTree"</definedName>
+    <definedName name="PalisadeReportWorksheetCreatedBy" localSheetId="4">"PrecisionTree"</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -207,7 +208,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="173">
   <si>
     <r>
       <t>Performed By:</t>
@@ -375,9 +376,6 @@
   </si>
   <si>
     <t>Landscape Complexity</t>
-  </si>
-  <si>
-    <t>Average SDI values range from .5-3.5, but we assume that in ag landscapes, they will skew lower.</t>
   </si>
   <si>
     <t>Pest Management Score</t>
@@ -745,6 +743,45 @@
   </si>
   <si>
     <t>Light discing *</t>
+  </si>
+  <si>
+    <t>Simpson Diversity Index values range from 0-1.0. (1+SiDI)</t>
+  </si>
+  <si>
+    <t>No Semi-Natural Habitat (Composite SNH Score = 0)</t>
+  </si>
+  <si>
+    <t>No-till, i.e. &gt;30% residue, and no crop left unharvested (Tillage Score = 2)</t>
+  </si>
+  <si>
+    <t>Proactive scouting and no other pest mgmt. practices (Pest Mgmt. score = 3)</t>
+  </si>
+  <si>
+    <t>No Cropland conversion in previous 20 years (Conversion score = 0)</t>
+  </si>
+  <si>
+    <t>USDA NASS Croland Data Layer</t>
+  </si>
+  <si>
+    <t>USGS National Land Cover Database</t>
+  </si>
+  <si>
+    <t>6x6 km</t>
+  </si>
+  <si>
+    <t>USGS NLCD Legend</t>
+  </si>
+  <si>
+    <t>USDA NASS Cropland Data Layer Legend</t>
+  </si>
+  <si>
+    <t>Simple ag landscape in Douglas County, WA (0.108 Simpson Diversity Index score)</t>
+  </si>
+  <si>
+    <t>Winter Wheat-Fallow-Pea-Canola (Crop Rotation Score = 4)</t>
+  </si>
+  <si>
+    <t>No Cover Crops (CC score = 0)</t>
   </si>
 </sst>
 </file>
@@ -1337,7 +1374,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1530,6 +1567,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -2533,6 +2573,193 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>234294</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>74083</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>284847</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>105304</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBF88F35-4FA7-7B4E-392F-4C53B1EDCA51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7591535" y="1190807"/>
+          <a:ext cx="3116071" cy="4684238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>172326</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>173165</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>16541</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FF850F7-F08E-29B3-598E-3A54B4E42D67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1289050"/>
+          <a:ext cx="3851786" cy="3380508"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>142327</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>150429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>181979</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>27632</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6" descr="A picture containing wire, outdoor object, colorful, bright&#10;&#10;Description automatically generated">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0982C178-689E-13D6-5E2E-730A291E457A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3820948" y="1267153"/>
+          <a:ext cx="3718272" cy="3413496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>131379</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>98535</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>131974</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>159251</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECCD24D0-23C0-F7E7-BA61-4877671C3466}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="131379" y="5496035"/>
+          <a:ext cx="6744733" cy="3410888"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -2540,8 +2767,8 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>341</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>1129</xdr:row>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2549,7 +2776,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36BE065E-29EA-5579-7C9A-9E15488657B1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11F45E5E-7FDF-1392-A6B5-8B82E7F9851A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2573,7 +2800,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="207905350" cy="207937100"/>
+          <a:ext cx="207981550" cy="27654250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2595,7 +2822,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2636,7 +2863,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -2992,7 +3219,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="HPI Score"/>
@@ -3017,8 +3244,11 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="_PTreeMain"/>
     </sheetNames>
@@ -3376,10 +3606,88 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{057AE36A-A7BB-4CC6-B9A1-7214974C3A28}">
+  <dimension ref="A1:O47"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A36" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="80" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="80" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="80" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="80" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="80" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" s="80" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" s="80" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>167</v>
+      </c>
+      <c r="H26" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>165</v>
+      </c>
+      <c r="H27" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="O30" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>169</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F615C6D-1A64-4A87-8E45-05FF34550DA4}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="86" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -3426,7 +3734,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -3454,21 +3762,21 @@
         <v>44</v>
       </c>
       <c r="B5">
-        <v>1.2</v>
+        <v>1.1080000000000001</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="36">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -3480,15 +3788,15 @@
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -3499,7 +3807,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -3517,7 +3825,7 @@
       </c>
       <c r="B9" s="79">
         <f>(SUM(B2:B4)*B5)+B6+B7+B8</f>
-        <v>10.199999999999999</v>
+        <v>9.2160000000000011</v>
       </c>
       <c r="C9" s="79">
         <f t="shared" ref="C9" si="0">(SUM(C2:C4)*C5)+C6+C7+C8</f>
@@ -3531,27 +3839,27 @@
     <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="D11" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="31" t="s">
-        <v>52</v>
-      </c>
       <c r="E11" s="32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B12" s="34">
         <v>7</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E12" s="36">
         <v>0</v>
@@ -3559,13 +3867,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B13" s="34">
         <v>5</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E13" s="36">
         <v>2</v>
@@ -3573,13 +3881,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B14" s="34">
         <v>4</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E14" s="36">
         <v>3</v>
@@ -3587,13 +3895,13 @@
     </row>
     <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B15" s="34">
         <v>3</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E15" s="38">
         <v>4</v>
@@ -3601,7 +3909,7 @@
     </row>
     <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B16" s="40">
         <v>2</v>
@@ -3610,27 +3918,27 @@
     <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="43" t="s">
-        <v>63</v>
-      </c>
       <c r="E18" s="44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="45" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B19" s="46">
         <v>0</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E19" s="36">
         <v>0</v>
@@ -3638,13 +3946,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B20" s="34">
         <v>1</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E20" s="36">
         <v>-4</v>
@@ -3652,13 +3960,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="47" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B21" s="48">
         <v>2</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E21" s="36">
         <v>-3</v>
@@ -3666,13 +3974,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B22" s="34">
         <v>1</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E22" s="36">
         <v>-2</v>
@@ -3680,13 +3988,13 @@
     </row>
     <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B23" s="40">
         <v>2</v>
       </c>
       <c r="D23" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E23" s="38">
         <v>-1</v>
@@ -3695,15 +4003,15 @@
     <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A26" s="33" t="s">
         <v>74</v>
-      </c>
-      <c r="B25" s="32" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="33" t="s">
-        <v>75</v>
       </c>
       <c r="B26" s="34">
         <v>10</v>
@@ -3711,7 +4019,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B27" s="34">
         <v>5</v>
@@ -3719,7 +4027,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B28" s="34">
         <v>3</v>
@@ -3727,7 +4035,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B29" s="34">
         <v>1</v>
@@ -3735,7 +4043,7 @@
     </row>
     <row r="30" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B30" s="34">
         <v>2</v>
@@ -3743,7 +4051,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B31" s="34">
         <v>-2</v>
@@ -3751,7 +4059,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B32" s="34">
         <v>-5</v>
@@ -3759,7 +4067,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B33" s="34">
         <v>2</v>
@@ -3767,7 +4075,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B34" s="34">
         <v>3</v>
@@ -3775,7 +4083,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B35" s="34">
         <v>3</v>
@@ -3783,7 +4091,7 @@
     </row>
     <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B36" s="40">
         <v>3</v>
@@ -3802,24 +4110,24 @@
     <row r="38" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C38" s="52">
         <f>$B$9</f>
-        <v>10.199999999999999</v>
+        <v>9.2160000000000011</v>
       </c>
       <c r="D38" s="53">
         <f>_xll.PTreeNodeValue([1]treeCalc_1!$F$2,2)</f>
-        <v>15.270000000000001</v>
+        <v>9.2160000000000011</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="52"/>
       <c r="C39" s="54" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="52"/>
       <c r="C40" s="55">
         <f>_xll.PTreeNodeValue([1]treeCalc_1!$F$2,1)</f>
-        <v>15.270000000000001</v>
+        <v>9.2160000000000011</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3846,12 +4154,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDC3AAC4-9594-468C-88B5-329995F7B236}">
   <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="B1" zoomScale="52" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3866,31 +4174,31 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="D1" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="G1" s="58" t="s">
         <v>89</v>
-      </c>
-      <c r="G1" s="58" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B2" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" t="s">
         <v>91</v>
-      </c>
-      <c r="C2" t="s">
-        <v>92</v>
       </c>
       <c r="D2" s="36">
         <f>VLOOKUP(C2,Table211[#All],6,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G2">
         <v>10</v>
@@ -3898,10 +4206,10 @@
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B3" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="59" t="s">
         <v>94</v>
-      </c>
-      <c r="C3" s="59" t="s">
-        <v>95</v>
       </c>
       <c r="D3" s="36">
         <f>VLOOKUP(C3,Table312[#All],2,FALSE)</f>
@@ -3913,7 +4221,7 @@
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B4" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D4" s="36">
         <v>2</v>
@@ -3922,15 +4230,15 @@
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B5" s="35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D5" s="36">
         <f>VLOOKUP(C5,Table12[#All],2,FALSE)</f>
@@ -3942,10 +4250,10 @@
     </row>
     <row r="6" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" t="s">
         <v>99</v>
-      </c>
-      <c r="C6" t="s">
-        <v>100</v>
       </c>
       <c r="D6" s="36">
         <f>VLOOKUP(C6,Table13[#All],2,FALSE)</f>
@@ -3968,32 +4276,32 @@
         <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B10" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="63" t="s">
+      <c r="D10" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="D10" s="63" t="s">
+      <c r="E10" s="63" t="s">
         <v>104</v>
       </c>
-      <c r="E10" s="63" t="s">
+      <c r="F10" s="63" t="s">
         <v>105</v>
       </c>
-      <c r="F10" s="63" t="s">
+      <c r="G10" s="63" t="s">
         <v>106</v>
-      </c>
-      <c r="G10" s="63" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B11" s="64" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C11" s="65">
         <v>3</v>
@@ -4013,7 +4321,7 @@
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B12" s="64" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C12" s="65">
         <v>0</v>
@@ -4033,7 +4341,7 @@
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B13" s="64" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C13" s="65">
         <v>3</v>
@@ -4053,7 +4361,7 @@
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B14" s="64" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C14" s="65">
         <v>1</v>
@@ -4073,7 +4381,7 @@
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B15" s="64" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C15" s="65">
         <v>1</v>
@@ -4093,7 +4401,7 @@
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B16" s="64" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C16" s="65">
         <v>1</v>
@@ -4113,7 +4421,7 @@
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B17" s="64" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" s="65">
         <v>1</v>
@@ -4133,7 +4441,7 @@
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B18" s="64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C18" s="65">
         <v>1</v>
@@ -4153,7 +4461,7 @@
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B19" s="64" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C19" s="65">
         <v>2</v>
@@ -4173,7 +4481,7 @@
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B20" s="64" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C20" s="65">
         <v>5</v>
@@ -4193,7 +4501,7 @@
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B21" s="64" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C21" s="65">
         <v>2</v>
@@ -4213,7 +4521,7 @@
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B22" s="64" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C22" s="65">
         <v>1</v>
@@ -4233,19 +4541,19 @@
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B23" s="64" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C23" s="65">
         <v>1</v>
       </c>
       <c r="D23" s="66" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E23" s="66" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F23" s="66" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G23" s="65">
         <v>2</v>
@@ -4253,19 +4561,19 @@
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B24" s="64" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C24" s="65">
         <v>3</v>
       </c>
       <c r="D24" s="66" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E24" s="66" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F24" s="66" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G24" s="65">
         <v>6</v>
@@ -4273,7 +4581,7 @@
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B25" s="64" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C25" s="65">
         <v>5</v>
@@ -4293,7 +4601,7 @@
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B26" s="64" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C26" s="65">
         <v>5</v>
@@ -4313,7 +4621,7 @@
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B27" s="64" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C27" s="65">
         <v>1</v>
@@ -4333,7 +4641,7 @@
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B28" s="64" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C28" s="65">
         <v>2</v>
@@ -4353,7 +4661,7 @@
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B29" s="64" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C29" s="65">
         <v>2</v>
@@ -4373,19 +4681,19 @@
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B30" s="64" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C30" s="65">
         <v>5</v>
       </c>
       <c r="D30" s="66" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E30" s="66" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F30" s="66" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G30" s="65">
         <v>10</v>
@@ -4393,7 +4701,7 @@
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B31" s="64" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C31" s="65">
         <v>0</v>
@@ -4412,141 +4720,141 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="80" t="s">
+      <c r="A34" s="81" t="s">
+        <v>128</v>
+      </c>
+      <c r="B34" s="67" t="s">
         <v>129</v>
       </c>
-      <c r="B34" s="67" t="s">
+      <c r="C34" s="67" t="s">
         <v>130</v>
       </c>
-      <c r="C34" s="67" t="s">
+    </row>
+    <row r="35" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A35" s="81"/>
+      <c r="B35" s="68" t="s">
         <v>131</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A35" s="80"/>
-      <c r="B35" s="68" t="s">
-        <v>132</v>
       </c>
       <c r="C35" s="69">
         <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A36" s="80"/>
+      <c r="A36" s="81"/>
       <c r="B36" s="68" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C36" s="69">
         <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="80"/>
+      <c r="A37" s="81"/>
       <c r="B37" s="68" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C37" s="69">
         <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="80"/>
+      <c r="A38" s="81"/>
       <c r="B38" s="68" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C38" s="69">
         <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" s="80"/>
+      <c r="A39" s="81"/>
       <c r="B39" s="68" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C39" s="69">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="80" t="s">
+      <c r="A40" s="81" t="s">
+        <v>136</v>
+      </c>
+      <c r="B40" s="68" t="s">
         <v>137</v>
-      </c>
-      <c r="B40" s="68" t="s">
-        <v>138</v>
       </c>
       <c r="C40" s="69">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" s="80"/>
+      <c r="A41" s="81"/>
       <c r="B41" s="70" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C41" s="71">
         <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" s="80"/>
+      <c r="A42" s="81"/>
       <c r="B42" s="68" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C42" s="69">
         <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" s="80"/>
+      <c r="A43" s="81"/>
       <c r="B43" s="68" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C43" s="69">
         <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="80" t="s">
+      <c r="A44" s="81" t="s">
+        <v>141</v>
+      </c>
+      <c r="B44" s="72" t="s">
         <v>142</v>
-      </c>
-      <c r="B44" s="72" t="s">
-        <v>143</v>
       </c>
       <c r="C44" s="73">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A45" s="81"/>
+      <c r="A45" s="82"/>
       <c r="B45" s="45" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C45" s="74">
         <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A46" s="81"/>
+      <c r="A46" s="82"/>
       <c r="B46" s="33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C46" s="75">
         <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A47" s="81"/>
+      <c r="A47" s="82"/>
       <c r="B47" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C47" s="75">
         <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A48" s="81"/>
+      <c r="A48" s="82"/>
       <c r="B48" s="33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C48" s="75">
         <v>1</v>
@@ -4554,7 +4862,7 @@
     </row>
     <row r="49" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B49" s="39" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C49" s="76">
         <v>0</v>
@@ -4562,7 +4870,7 @@
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B50" s="77" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C50" s="69">
         <v>0</v>
@@ -4570,15 +4878,15 @@
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C52" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C53">
         <v>4</v>
@@ -4586,7 +4894,7 @@
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C54">
         <v>4</v>
@@ -4594,7 +4902,7 @@
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C55">
         <v>3</v>
@@ -4602,7 +4910,7 @@
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B56" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C56">
         <v>2</v>
@@ -4610,7 +4918,7 @@
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B57" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -4618,7 +4926,7 @@
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B58" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -4626,15 +4934,15 @@
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B60" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C60" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B61" s="66" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C61" s="65">
         <v>5</v>
@@ -4642,7 +4950,7 @@
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B62" s="66" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C62" s="65">
         <v>4</v>
@@ -4650,7 +4958,7 @@
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B63" s="66" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C63" s="65">
         <v>4</v>
@@ -4658,7 +4966,7 @@
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B64" s="64" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C64" s="65">
         <v>3</v>
@@ -4666,7 +4974,7 @@
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B65" s="66" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C65" s="65">
         <v>2</v>
@@ -4674,7 +4982,7 @@
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B66" s="66" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C66" s="65">
         <v>2</v>
@@ -4682,7 +4990,7 @@
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B67" s="66" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C67" s="65">
         <v>2</v>
@@ -4690,7 +4998,7 @@
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B68" s="66" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C68" s="65">
         <v>0</v>
@@ -4749,11 +5057,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{058016EA-FB0F-452C-9FE8-ABF51CB6FC4D}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC5A507C-ADCA-498C-A1D5-95B3A6E235F0}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="90" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -4764,7 +5072,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9B4567F-559C-40B0-9664-4DCB337A37A4}">
   <dimension ref="B1:K141"/>
   <sheetViews>
@@ -4809,48 +5117,48 @@
     </row>
     <row r="27" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="28" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B28" s="82" t="s">
+      <c r="B28" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="83"/>
-      <c r="D28" s="83"/>
-      <c r="E28" s="83"/>
-      <c r="F28" s="83"/>
-      <c r="G28" s="83"/>
-      <c r="H28" s="83"/>
-      <c r="I28" s="83"/>
-      <c r="J28" s="83"/>
-      <c r="K28" s="84"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="84"/>
+      <c r="G28" s="84"/>
+      <c r="H28" s="84"/>
+      <c r="I28" s="84"/>
+      <c r="J28" s="84"/>
+      <c r="K28" s="85"/>
     </row>
     <row r="29" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="85" t="s">
+      <c r="B29" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="86"/>
-      <c r="D29" s="86"/>
-      <c r="E29" s="86"/>
-      <c r="F29" s="86"/>
-      <c r="G29" s="86"/>
-      <c r="H29" s="86"/>
-      <c r="I29" s="86"/>
-      <c r="J29" s="86"/>
-      <c r="K29" s="87"/>
+      <c r="C29" s="87"/>
+      <c r="D29" s="87"/>
+      <c r="E29" s="87"/>
+      <c r="F29" s="87"/>
+      <c r="G29" s="87"/>
+      <c r="H29" s="87"/>
+      <c r="I29" s="87"/>
+      <c r="J29" s="87"/>
+      <c r="K29" s="88"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B30" s="7"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="12"/>
-      <c r="F30" s="88" t="s">
+      <c r="F30" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="G30" s="89"/>
-      <c r="H30" s="90"/>
-      <c r="I30" s="88" t="s">
+      <c r="G30" s="90"/>
+      <c r="H30" s="91"/>
+      <c r="I30" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="J30" s="89"/>
-      <c r="K30" s="91"/>
+      <c r="J30" s="90"/>
+      <c r="K30" s="92"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B31" s="18" t="s">
@@ -4885,13 +5193,13 @@
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B32" s="92" t="s">
+      <c r="B32" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="95" t="s">
+      <c r="C32" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="95" t="s">
+      <c r="D32" s="96" t="s">
         <v>9</v>
       </c>
       <c r="E32" s="19">
@@ -4917,9 +5225,9 @@
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B33" s="93"/>
-      <c r="C33" s="96"/>
-      <c r="D33" s="96"/>
+      <c r="B33" s="94"/>
+      <c r="C33" s="97"/>
+      <c r="D33" s="97"/>
       <c r="E33" s="19">
         <v>2</v>
       </c>
@@ -4943,9 +5251,9 @@
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B34" s="93"/>
-      <c r="C34" s="96"/>
-      <c r="D34" s="96"/>
+      <c r="B34" s="94"/>
+      <c r="C34" s="97"/>
+      <c r="D34" s="97"/>
       <c r="E34" s="19">
         <v>3</v>
       </c>
@@ -4969,9 +5277,9 @@
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B35" s="93"/>
-      <c r="C35" s="96"/>
-      <c r="D35" s="96"/>
+      <c r="B35" s="94"/>
+      <c r="C35" s="97"/>
+      <c r="D35" s="97"/>
       <c r="E35" s="19">
         <v>4</v>
       </c>
@@ -4995,9 +5303,9 @@
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B36" s="93"/>
-      <c r="C36" s="96"/>
-      <c r="D36" s="96"/>
+      <c r="B36" s="94"/>
+      <c r="C36" s="97"/>
+      <c r="D36" s="97"/>
       <c r="E36" s="19">
         <v>5</v>
       </c>
@@ -5021,9 +5329,9 @@
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B37" s="93"/>
-      <c r="C37" s="96"/>
-      <c r="D37" s="96"/>
+      <c r="B37" s="94"/>
+      <c r="C37" s="97"/>
+      <c r="D37" s="97"/>
       <c r="E37" s="19">
         <v>6</v>
       </c>
@@ -5047,9 +5355,9 @@
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B38" s="93"/>
-      <c r="C38" s="96"/>
-      <c r="D38" s="96"/>
+      <c r="B38" s="94"/>
+      <c r="C38" s="97"/>
+      <c r="D38" s="97"/>
       <c r="E38" s="19">
         <v>7</v>
       </c>
@@ -5073,9 +5381,9 @@
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B39" s="93"/>
-      <c r="C39" s="96"/>
-      <c r="D39" s="96"/>
+      <c r="B39" s="94"/>
+      <c r="C39" s="97"/>
+      <c r="D39" s="97"/>
       <c r="E39" s="19">
         <v>8</v>
       </c>
@@ -5099,9 +5407,9 @@
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B40" s="93"/>
-      <c r="C40" s="96"/>
-      <c r="D40" s="96"/>
+      <c r="B40" s="94"/>
+      <c r="C40" s="97"/>
+      <c r="D40" s="97"/>
       <c r="E40" s="19">
         <v>9</v>
       </c>
@@ -5125,9 +5433,9 @@
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B41" s="93"/>
-      <c r="C41" s="96"/>
-      <c r="D41" s="96"/>
+      <c r="B41" s="94"/>
+      <c r="C41" s="97"/>
+      <c r="D41" s="97"/>
       <c r="E41" s="19">
         <v>10</v>
       </c>
@@ -5151,9 +5459,9 @@
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B42" s="94"/>
-      <c r="C42" s="97"/>
-      <c r="D42" s="97"/>
+      <c r="B42" s="95"/>
+      <c r="C42" s="98"/>
+      <c r="D42" s="98"/>
       <c r="E42" s="24">
         <v>11</v>
       </c>
@@ -5177,13 +5485,13 @@
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B43" s="98" t="s">
+      <c r="B43" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="C43" s="99" t="s">
+      <c r="C43" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="D43" s="99" t="s">
+      <c r="D43" s="100" t="s">
         <v>12</v>
       </c>
       <c r="E43" s="19">
@@ -5209,9 +5517,9 @@
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B44" s="93"/>
-      <c r="C44" s="96"/>
-      <c r="D44" s="96"/>
+      <c r="B44" s="94"/>
+      <c r="C44" s="97"/>
+      <c r="D44" s="97"/>
       <c r="E44" s="19">
         <v>2</v>
       </c>
@@ -5235,9 +5543,9 @@
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B45" s="93"/>
-      <c r="C45" s="96"/>
-      <c r="D45" s="96"/>
+      <c r="B45" s="94"/>
+      <c r="C45" s="97"/>
+      <c r="D45" s="97"/>
       <c r="E45" s="19">
         <v>3</v>
       </c>
@@ -5261,9 +5569,9 @@
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B46" s="93"/>
-      <c r="C46" s="96"/>
-      <c r="D46" s="96"/>
+      <c r="B46" s="94"/>
+      <c r="C46" s="97"/>
+      <c r="D46" s="97"/>
       <c r="E46" s="19">
         <v>4</v>
       </c>
@@ -5287,9 +5595,9 @@
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B47" s="93"/>
-      <c r="C47" s="96"/>
-      <c r="D47" s="96"/>
+      <c r="B47" s="94"/>
+      <c r="C47" s="97"/>
+      <c r="D47" s="97"/>
       <c r="E47" s="19">
         <v>5</v>
       </c>
@@ -5313,9 +5621,9 @@
       </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B48" s="93"/>
-      <c r="C48" s="96"/>
-      <c r="D48" s="96"/>
+      <c r="B48" s="94"/>
+      <c r="C48" s="97"/>
+      <c r="D48" s="97"/>
       <c r="E48" s="19">
         <v>6</v>
       </c>
@@ -5339,9 +5647,9 @@
       </c>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B49" s="93"/>
-      <c r="C49" s="96"/>
-      <c r="D49" s="96"/>
+      <c r="B49" s="94"/>
+      <c r="C49" s="97"/>
+      <c r="D49" s="97"/>
       <c r="E49" s="19">
         <v>7</v>
       </c>
@@ -5365,9 +5673,9 @@
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B50" s="93"/>
-      <c r="C50" s="96"/>
-      <c r="D50" s="96"/>
+      <c r="B50" s="94"/>
+      <c r="C50" s="97"/>
+      <c r="D50" s="97"/>
       <c r="E50" s="19">
         <v>8</v>
       </c>
@@ -5391,9 +5699,9 @@
       </c>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B51" s="93"/>
-      <c r="C51" s="96"/>
-      <c r="D51" s="96"/>
+      <c r="B51" s="94"/>
+      <c r="C51" s="97"/>
+      <c r="D51" s="97"/>
       <c r="E51" s="19">
         <v>9</v>
       </c>
@@ -5417,9 +5725,9 @@
       </c>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B52" s="93"/>
-      <c r="C52" s="96"/>
-      <c r="D52" s="96"/>
+      <c r="B52" s="94"/>
+      <c r="C52" s="97"/>
+      <c r="D52" s="97"/>
       <c r="E52" s="19">
         <v>10</v>
       </c>
@@ -5443,9 +5751,9 @@
       </c>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B53" s="94"/>
-      <c r="C53" s="97"/>
-      <c r="D53" s="97"/>
+      <c r="B53" s="95"/>
+      <c r="C53" s="98"/>
+      <c r="D53" s="98"/>
       <c r="E53" s="24">
         <v>11</v>
       </c>
@@ -5469,13 +5777,13 @@
       </c>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B54" s="98" t="s">
+      <c r="B54" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="C54" s="99" t="s">
+      <c r="C54" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="D54" s="99" t="s">
+      <c r="D54" s="100" t="s">
         <v>14</v>
       </c>
       <c r="E54" s="19">
@@ -5501,9 +5809,9 @@
       </c>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B55" s="93"/>
-      <c r="C55" s="96"/>
-      <c r="D55" s="96"/>
+      <c r="B55" s="94"/>
+      <c r="C55" s="97"/>
+      <c r="D55" s="97"/>
       <c r="E55" s="19">
         <v>2</v>
       </c>
@@ -5527,9 +5835,9 @@
       </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B56" s="93"/>
-      <c r="C56" s="96"/>
-      <c r="D56" s="96"/>
+      <c r="B56" s="94"/>
+      <c r="C56" s="97"/>
+      <c r="D56" s="97"/>
       <c r="E56" s="19">
         <v>3</v>
       </c>
@@ -5553,9 +5861,9 @@
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B57" s="93"/>
-      <c r="C57" s="96"/>
-      <c r="D57" s="96"/>
+      <c r="B57" s="94"/>
+      <c r="C57" s="97"/>
+      <c r="D57" s="97"/>
       <c r="E57" s="19">
         <v>4</v>
       </c>
@@ -5579,9 +5887,9 @@
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B58" s="93"/>
-      <c r="C58" s="96"/>
-      <c r="D58" s="96"/>
+      <c r="B58" s="94"/>
+      <c r="C58" s="97"/>
+      <c r="D58" s="97"/>
       <c r="E58" s="19">
         <v>5</v>
       </c>
@@ -5605,9 +5913,9 @@
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B59" s="93"/>
-      <c r="C59" s="96"/>
-      <c r="D59" s="96"/>
+      <c r="B59" s="94"/>
+      <c r="C59" s="97"/>
+      <c r="D59" s="97"/>
       <c r="E59" s="19">
         <v>6</v>
       </c>
@@ -5631,9 +5939,9 @@
       </c>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B60" s="93"/>
-      <c r="C60" s="96"/>
-      <c r="D60" s="96"/>
+      <c r="B60" s="94"/>
+      <c r="C60" s="97"/>
+      <c r="D60" s="97"/>
       <c r="E60" s="19">
         <v>7</v>
       </c>
@@ -5657,9 +5965,9 @@
       </c>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B61" s="93"/>
-      <c r="C61" s="96"/>
-      <c r="D61" s="96"/>
+      <c r="B61" s="94"/>
+      <c r="C61" s="97"/>
+      <c r="D61" s="97"/>
       <c r="E61" s="19">
         <v>8</v>
       </c>
@@ -5683,9 +5991,9 @@
       </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B62" s="93"/>
-      <c r="C62" s="96"/>
-      <c r="D62" s="96"/>
+      <c r="B62" s="94"/>
+      <c r="C62" s="97"/>
+      <c r="D62" s="97"/>
       <c r="E62" s="19">
         <v>9</v>
       </c>
@@ -5709,9 +6017,9 @@
       </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B63" s="93"/>
-      <c r="C63" s="96"/>
-      <c r="D63" s="96"/>
+      <c r="B63" s="94"/>
+      <c r="C63" s="97"/>
+      <c r="D63" s="97"/>
       <c r="E63" s="19">
         <v>10</v>
       </c>
@@ -5735,9 +6043,9 @@
       </c>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B64" s="94"/>
-      <c r="C64" s="97"/>
-      <c r="D64" s="97"/>
+      <c r="B64" s="95"/>
+      <c r="C64" s="98"/>
+      <c r="D64" s="98"/>
       <c r="E64" s="24">
         <v>11</v>
       </c>
@@ -5761,13 +6069,13 @@
       </c>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B65" s="98" t="s">
+      <c r="B65" s="99" t="s">
         <v>16</v>
       </c>
-      <c r="C65" s="99" t="s">
+      <c r="C65" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="D65" s="99" t="s">
+      <c r="D65" s="100" t="s">
         <v>17</v>
       </c>
       <c r="E65" s="19">
@@ -5793,9 +6101,9 @@
       </c>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B66" s="93"/>
-      <c r="C66" s="96"/>
-      <c r="D66" s="96"/>
+      <c r="B66" s="94"/>
+      <c r="C66" s="97"/>
+      <c r="D66" s="97"/>
       <c r="E66" s="19">
         <v>2</v>
       </c>
@@ -5819,9 +6127,9 @@
       </c>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B67" s="93"/>
-      <c r="C67" s="96"/>
-      <c r="D67" s="96"/>
+      <c r="B67" s="94"/>
+      <c r="C67" s="97"/>
+      <c r="D67" s="97"/>
       <c r="E67" s="19">
         <v>3</v>
       </c>
@@ -5845,9 +6153,9 @@
       </c>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B68" s="93"/>
-      <c r="C68" s="96"/>
-      <c r="D68" s="96"/>
+      <c r="B68" s="94"/>
+      <c r="C68" s="97"/>
+      <c r="D68" s="97"/>
       <c r="E68" s="19">
         <v>4</v>
       </c>
@@ -5871,9 +6179,9 @@
       </c>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B69" s="93"/>
-      <c r="C69" s="96"/>
-      <c r="D69" s="96"/>
+      <c r="B69" s="94"/>
+      <c r="C69" s="97"/>
+      <c r="D69" s="97"/>
       <c r="E69" s="19">
         <v>5</v>
       </c>
@@ -5897,9 +6205,9 @@
       </c>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B70" s="93"/>
-      <c r="C70" s="96"/>
-      <c r="D70" s="96"/>
+      <c r="B70" s="94"/>
+      <c r="C70" s="97"/>
+      <c r="D70" s="97"/>
       <c r="E70" s="19">
         <v>6</v>
       </c>
@@ -5923,9 +6231,9 @@
       </c>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B71" s="93"/>
-      <c r="C71" s="96"/>
-      <c r="D71" s="96"/>
+      <c r="B71" s="94"/>
+      <c r="C71" s="97"/>
+      <c r="D71" s="97"/>
       <c r="E71" s="19">
         <v>7</v>
       </c>
@@ -5949,9 +6257,9 @@
       </c>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B72" s="93"/>
-      <c r="C72" s="96"/>
-      <c r="D72" s="96"/>
+      <c r="B72" s="94"/>
+      <c r="C72" s="97"/>
+      <c r="D72" s="97"/>
       <c r="E72" s="19">
         <v>8</v>
       </c>
@@ -5975,9 +6283,9 @@
       </c>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B73" s="93"/>
-      <c r="C73" s="96"/>
-      <c r="D73" s="96"/>
+      <c r="B73" s="94"/>
+      <c r="C73" s="97"/>
+      <c r="D73" s="97"/>
       <c r="E73" s="19">
         <v>9</v>
       </c>
@@ -6001,9 +6309,9 @@
       </c>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B74" s="93"/>
-      <c r="C74" s="96"/>
-      <c r="D74" s="96"/>
+      <c r="B74" s="94"/>
+      <c r="C74" s="97"/>
+      <c r="D74" s="97"/>
       <c r="E74" s="19">
         <v>10</v>
       </c>
@@ -6027,9 +6335,9 @@
       </c>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B75" s="94"/>
-      <c r="C75" s="97"/>
-      <c r="D75" s="97"/>
+      <c r="B75" s="95"/>
+      <c r="C75" s="98"/>
+      <c r="D75" s="98"/>
       <c r="E75" s="24">
         <v>11</v>
       </c>
@@ -6053,13 +6361,13 @@
       </c>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B76" s="98" t="s">
+      <c r="B76" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="C76" s="99" t="s">
+      <c r="C76" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="D76" s="99" t="s">
+      <c r="D76" s="100" t="s">
         <v>19</v>
       </c>
       <c r="E76" s="19">
@@ -6085,9 +6393,9 @@
       </c>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B77" s="93"/>
-      <c r="C77" s="96"/>
-      <c r="D77" s="96"/>
+      <c r="B77" s="94"/>
+      <c r="C77" s="97"/>
+      <c r="D77" s="97"/>
       <c r="E77" s="19">
         <v>2</v>
       </c>
@@ -6111,9 +6419,9 @@
       </c>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B78" s="93"/>
-      <c r="C78" s="96"/>
-      <c r="D78" s="96"/>
+      <c r="B78" s="94"/>
+      <c r="C78" s="97"/>
+      <c r="D78" s="97"/>
       <c r="E78" s="19">
         <v>3</v>
       </c>
@@ -6137,9 +6445,9 @@
       </c>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B79" s="93"/>
-      <c r="C79" s="96"/>
-      <c r="D79" s="96"/>
+      <c r="B79" s="94"/>
+      <c r="C79" s="97"/>
+      <c r="D79" s="97"/>
       <c r="E79" s="19">
         <v>4</v>
       </c>
@@ -6163,9 +6471,9 @@
       </c>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B80" s="93"/>
-      <c r="C80" s="96"/>
-      <c r="D80" s="96"/>
+      <c r="B80" s="94"/>
+      <c r="C80" s="97"/>
+      <c r="D80" s="97"/>
       <c r="E80" s="19">
         <v>5</v>
       </c>
@@ -6189,9 +6497,9 @@
       </c>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B81" s="93"/>
-      <c r="C81" s="96"/>
-      <c r="D81" s="96"/>
+      <c r="B81" s="94"/>
+      <c r="C81" s="97"/>
+      <c r="D81" s="97"/>
       <c r="E81" s="19">
         <v>6</v>
       </c>
@@ -6215,9 +6523,9 @@
       </c>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B82" s="93"/>
-      <c r="C82" s="96"/>
-      <c r="D82" s="96"/>
+      <c r="B82" s="94"/>
+      <c r="C82" s="97"/>
+      <c r="D82" s="97"/>
       <c r="E82" s="19">
         <v>7</v>
       </c>
@@ -6241,9 +6549,9 @@
       </c>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B83" s="93"/>
-      <c r="C83" s="96"/>
-      <c r="D83" s="96"/>
+      <c r="B83" s="94"/>
+      <c r="C83" s="97"/>
+      <c r="D83" s="97"/>
       <c r="E83" s="19">
         <v>8</v>
       </c>
@@ -6267,9 +6575,9 @@
       </c>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B84" s="93"/>
-      <c r="C84" s="96"/>
-      <c r="D84" s="96"/>
+      <c r="B84" s="94"/>
+      <c r="C84" s="97"/>
+      <c r="D84" s="97"/>
       <c r="E84" s="19">
         <v>9</v>
       </c>
@@ -6293,9 +6601,9 @@
       </c>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B85" s="93"/>
-      <c r="C85" s="96"/>
-      <c r="D85" s="96"/>
+      <c r="B85" s="94"/>
+      <c r="C85" s="97"/>
+      <c r="D85" s="97"/>
       <c r="E85" s="19">
         <v>10</v>
       </c>
@@ -6319,9 +6627,9 @@
       </c>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B86" s="94"/>
-      <c r="C86" s="97"/>
-      <c r="D86" s="97"/>
+      <c r="B86" s="95"/>
+      <c r="C86" s="98"/>
+      <c r="D86" s="98"/>
       <c r="E86" s="24">
         <v>11</v>
       </c>
@@ -6345,13 +6653,13 @@
       </c>
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B87" s="98" t="s">
+      <c r="B87" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="C87" s="99" t="s">
+      <c r="C87" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="D87" s="99" t="s">
+      <c r="D87" s="100" t="s">
         <v>21</v>
       </c>
       <c r="E87" s="19">
@@ -6377,9 +6685,9 @@
       </c>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B88" s="93"/>
-      <c r="C88" s="96"/>
-      <c r="D88" s="96"/>
+      <c r="B88" s="94"/>
+      <c r="C88" s="97"/>
+      <c r="D88" s="97"/>
       <c r="E88" s="19">
         <v>2</v>
       </c>
@@ -6403,9 +6711,9 @@
       </c>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B89" s="93"/>
-      <c r="C89" s="96"/>
-      <c r="D89" s="96"/>
+      <c r="B89" s="94"/>
+      <c r="C89" s="97"/>
+      <c r="D89" s="97"/>
       <c r="E89" s="19">
         <v>3</v>
       </c>
@@ -6429,9 +6737,9 @@
       </c>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B90" s="93"/>
-      <c r="C90" s="96"/>
-      <c r="D90" s="96"/>
+      <c r="B90" s="94"/>
+      <c r="C90" s="97"/>
+      <c r="D90" s="97"/>
       <c r="E90" s="19">
         <v>4</v>
       </c>
@@ -6455,9 +6763,9 @@
       </c>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B91" s="93"/>
-      <c r="C91" s="96"/>
-      <c r="D91" s="96"/>
+      <c r="B91" s="94"/>
+      <c r="C91" s="97"/>
+      <c r="D91" s="97"/>
       <c r="E91" s="19">
         <v>5</v>
       </c>
@@ -6481,9 +6789,9 @@
       </c>
     </row>
     <row r="92" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B92" s="93"/>
-      <c r="C92" s="96"/>
-      <c r="D92" s="96"/>
+      <c r="B92" s="94"/>
+      <c r="C92" s="97"/>
+      <c r="D92" s="97"/>
       <c r="E92" s="19">
         <v>6</v>
       </c>
@@ -6507,9 +6815,9 @@
       </c>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B93" s="93"/>
-      <c r="C93" s="96"/>
-      <c r="D93" s="96"/>
+      <c r="B93" s="94"/>
+      <c r="C93" s="97"/>
+      <c r="D93" s="97"/>
       <c r="E93" s="19">
         <v>7</v>
       </c>
@@ -6533,9 +6841,9 @@
       </c>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B94" s="93"/>
-      <c r="C94" s="96"/>
-      <c r="D94" s="96"/>
+      <c r="B94" s="94"/>
+      <c r="C94" s="97"/>
+      <c r="D94" s="97"/>
       <c r="E94" s="19">
         <v>8</v>
       </c>
@@ -6559,9 +6867,9 @@
       </c>
     </row>
     <row r="95" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B95" s="93"/>
-      <c r="C95" s="96"/>
-      <c r="D95" s="96"/>
+      <c r="B95" s="94"/>
+      <c r="C95" s="97"/>
+      <c r="D95" s="97"/>
       <c r="E95" s="19">
         <v>9</v>
       </c>
@@ -6585,9 +6893,9 @@
       </c>
     </row>
     <row r="96" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B96" s="93"/>
-      <c r="C96" s="96"/>
-      <c r="D96" s="96"/>
+      <c r="B96" s="94"/>
+      <c r="C96" s="97"/>
+      <c r="D96" s="97"/>
       <c r="E96" s="19">
         <v>10</v>
       </c>
@@ -6611,9 +6919,9 @@
       </c>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B97" s="94"/>
-      <c r="C97" s="97"/>
-      <c r="D97" s="97"/>
+      <c r="B97" s="95"/>
+      <c r="C97" s="98"/>
+      <c r="D97" s="98"/>
       <c r="E97" s="24">
         <v>11</v>
       </c>
@@ -6637,13 +6945,13 @@
       </c>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B98" s="98" t="s">
+      <c r="B98" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="C98" s="99" t="s">
+      <c r="C98" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="D98" s="99" t="s">
+      <c r="D98" s="100" t="s">
         <v>23</v>
       </c>
       <c r="E98" s="19">
@@ -6669,9 +6977,9 @@
       </c>
     </row>
     <row r="99" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B99" s="93"/>
-      <c r="C99" s="96"/>
-      <c r="D99" s="96"/>
+      <c r="B99" s="94"/>
+      <c r="C99" s="97"/>
+      <c r="D99" s="97"/>
       <c r="E99" s="19">
         <v>2</v>
       </c>
@@ -6695,9 +7003,9 @@
       </c>
     </row>
     <row r="100" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B100" s="93"/>
-      <c r="C100" s="96"/>
-      <c r="D100" s="96"/>
+      <c r="B100" s="94"/>
+      <c r="C100" s="97"/>
+      <c r="D100" s="97"/>
       <c r="E100" s="19">
         <v>3</v>
       </c>
@@ -6721,9 +7029,9 @@
       </c>
     </row>
     <row r="101" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B101" s="93"/>
-      <c r="C101" s="96"/>
-      <c r="D101" s="96"/>
+      <c r="B101" s="94"/>
+      <c r="C101" s="97"/>
+      <c r="D101" s="97"/>
       <c r="E101" s="19">
         <v>4</v>
       </c>
@@ -6747,9 +7055,9 @@
       </c>
     </row>
     <row r="102" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B102" s="93"/>
-      <c r="C102" s="96"/>
-      <c r="D102" s="96"/>
+      <c r="B102" s="94"/>
+      <c r="C102" s="97"/>
+      <c r="D102" s="97"/>
       <c r="E102" s="19">
         <v>5</v>
       </c>
@@ -6773,9 +7081,9 @@
       </c>
     </row>
     <row r="103" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B103" s="93"/>
-      <c r="C103" s="96"/>
-      <c r="D103" s="96"/>
+      <c r="B103" s="94"/>
+      <c r="C103" s="97"/>
+      <c r="D103" s="97"/>
       <c r="E103" s="19">
         <v>6</v>
       </c>
@@ -6799,9 +7107,9 @@
       </c>
     </row>
     <row r="104" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B104" s="93"/>
-      <c r="C104" s="96"/>
-      <c r="D104" s="96"/>
+      <c r="B104" s="94"/>
+      <c r="C104" s="97"/>
+      <c r="D104" s="97"/>
       <c r="E104" s="19">
         <v>7</v>
       </c>
@@ -6825,9 +7133,9 @@
       </c>
     </row>
     <row r="105" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B105" s="93"/>
-      <c r="C105" s="96"/>
-      <c r="D105" s="96"/>
+      <c r="B105" s="94"/>
+      <c r="C105" s="97"/>
+      <c r="D105" s="97"/>
       <c r="E105" s="19">
         <v>8</v>
       </c>
@@ -6851,9 +7159,9 @@
       </c>
     </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B106" s="93"/>
-      <c r="C106" s="96"/>
-      <c r="D106" s="96"/>
+      <c r="B106" s="94"/>
+      <c r="C106" s="97"/>
+      <c r="D106" s="97"/>
       <c r="E106" s="19">
         <v>9</v>
       </c>
@@ -6877,9 +7185,9 @@
       </c>
     </row>
     <row r="107" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B107" s="93"/>
-      <c r="C107" s="96"/>
-      <c r="D107" s="96"/>
+      <c r="B107" s="94"/>
+      <c r="C107" s="97"/>
+      <c r="D107" s="97"/>
       <c r="E107" s="19">
         <v>10</v>
       </c>
@@ -6903,9 +7211,9 @@
       </c>
     </row>
     <row r="108" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B108" s="94"/>
-      <c r="C108" s="97"/>
-      <c r="D108" s="97"/>
+      <c r="B108" s="95"/>
+      <c r="C108" s="98"/>
+      <c r="D108" s="98"/>
       <c r="E108" s="24">
         <v>11</v>
       </c>
@@ -6929,13 +7237,13 @@
       </c>
     </row>
     <row r="109" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B109" s="98" t="s">
+      <c r="B109" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="C109" s="99" t="s">
+      <c r="C109" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="D109" s="99" t="s">
+      <c r="D109" s="100" t="s">
         <v>25</v>
       </c>
       <c r="E109" s="19">
@@ -6961,9 +7269,9 @@
       </c>
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B110" s="93"/>
-      <c r="C110" s="96"/>
-      <c r="D110" s="96"/>
+      <c r="B110" s="94"/>
+      <c r="C110" s="97"/>
+      <c r="D110" s="97"/>
       <c r="E110" s="19">
         <v>2</v>
       </c>
@@ -6987,9 +7295,9 @@
       </c>
     </row>
     <row r="111" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B111" s="93"/>
-      <c r="C111" s="96"/>
-      <c r="D111" s="96"/>
+      <c r="B111" s="94"/>
+      <c r="C111" s="97"/>
+      <c r="D111" s="97"/>
       <c r="E111" s="19">
         <v>3</v>
       </c>
@@ -7013,9 +7321,9 @@
       </c>
     </row>
     <row r="112" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B112" s="93"/>
-      <c r="C112" s="96"/>
-      <c r="D112" s="96"/>
+      <c r="B112" s="94"/>
+      <c r="C112" s="97"/>
+      <c r="D112" s="97"/>
       <c r="E112" s="19">
         <v>4</v>
       </c>
@@ -7039,9 +7347,9 @@
       </c>
     </row>
     <row r="113" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B113" s="93"/>
-      <c r="C113" s="96"/>
-      <c r="D113" s="96"/>
+      <c r="B113" s="94"/>
+      <c r="C113" s="97"/>
+      <c r="D113" s="97"/>
       <c r="E113" s="19">
         <v>5</v>
       </c>
@@ -7065,9 +7373,9 @@
       </c>
     </row>
     <row r="114" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B114" s="93"/>
-      <c r="C114" s="96"/>
-      <c r="D114" s="96"/>
+      <c r="B114" s="94"/>
+      <c r="C114" s="97"/>
+      <c r="D114" s="97"/>
       <c r="E114" s="19">
         <v>6</v>
       </c>
@@ -7091,9 +7399,9 @@
       </c>
     </row>
     <row r="115" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B115" s="93"/>
-      <c r="C115" s="96"/>
-      <c r="D115" s="96"/>
+      <c r="B115" s="94"/>
+      <c r="C115" s="97"/>
+      <c r="D115" s="97"/>
       <c r="E115" s="19">
         <v>7</v>
       </c>
@@ -7117,9 +7425,9 @@
       </c>
     </row>
     <row r="116" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B116" s="93"/>
-      <c r="C116" s="96"/>
-      <c r="D116" s="96"/>
+      <c r="B116" s="94"/>
+      <c r="C116" s="97"/>
+      <c r="D116" s="97"/>
       <c r="E116" s="19">
         <v>8</v>
       </c>
@@ -7143,9 +7451,9 @@
       </c>
     </row>
     <row r="117" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B117" s="93"/>
-      <c r="C117" s="96"/>
-      <c r="D117" s="96"/>
+      <c r="B117" s="94"/>
+      <c r="C117" s="97"/>
+      <c r="D117" s="97"/>
       <c r="E117" s="19">
         <v>9</v>
       </c>
@@ -7169,9 +7477,9 @@
       </c>
     </row>
     <row r="118" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B118" s="93"/>
-      <c r="C118" s="96"/>
-      <c r="D118" s="96"/>
+      <c r="B118" s="94"/>
+      <c r="C118" s="97"/>
+      <c r="D118" s="97"/>
       <c r="E118" s="19">
         <v>10</v>
       </c>
@@ -7195,9 +7503,9 @@
       </c>
     </row>
     <row r="119" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B119" s="94"/>
-      <c r="C119" s="97"/>
-      <c r="D119" s="97"/>
+      <c r="B119" s="95"/>
+      <c r="C119" s="98"/>
+      <c r="D119" s="98"/>
       <c r="E119" s="24">
         <v>11</v>
       </c>
@@ -7221,13 +7529,13 @@
       </c>
     </row>
     <row r="120" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B120" s="98" t="s">
+      <c r="B120" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="C120" s="99" t="s">
+      <c r="C120" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="D120" s="99" t="s">
+      <c r="D120" s="100" t="s">
         <v>27</v>
       </c>
       <c r="E120" s="19">
@@ -7253,9 +7561,9 @@
       </c>
     </row>
     <row r="121" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B121" s="93"/>
-      <c r="C121" s="96"/>
-      <c r="D121" s="96"/>
+      <c r="B121" s="94"/>
+      <c r="C121" s="97"/>
+      <c r="D121" s="97"/>
       <c r="E121" s="19">
         <v>2</v>
       </c>
@@ -7279,9 +7587,9 @@
       </c>
     </row>
     <row r="122" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B122" s="93"/>
-      <c r="C122" s="96"/>
-      <c r="D122" s="96"/>
+      <c r="B122" s="94"/>
+      <c r="C122" s="97"/>
+      <c r="D122" s="97"/>
       <c r="E122" s="19">
         <v>3</v>
       </c>
@@ -7305,9 +7613,9 @@
       </c>
     </row>
     <row r="123" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B123" s="93"/>
-      <c r="C123" s="96"/>
-      <c r="D123" s="96"/>
+      <c r="B123" s="94"/>
+      <c r="C123" s="97"/>
+      <c r="D123" s="97"/>
       <c r="E123" s="19">
         <v>4</v>
       </c>
@@ -7331,9 +7639,9 @@
       </c>
     </row>
     <row r="124" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B124" s="93"/>
-      <c r="C124" s="96"/>
-      <c r="D124" s="96"/>
+      <c r="B124" s="94"/>
+      <c r="C124" s="97"/>
+      <c r="D124" s="97"/>
       <c r="E124" s="19">
         <v>5</v>
       </c>
@@ -7357,9 +7665,9 @@
       </c>
     </row>
     <row r="125" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B125" s="93"/>
-      <c r="C125" s="96"/>
-      <c r="D125" s="96"/>
+      <c r="B125" s="94"/>
+      <c r="C125" s="97"/>
+      <c r="D125" s="97"/>
       <c r="E125" s="19">
         <v>6</v>
       </c>
@@ -7383,9 +7691,9 @@
       </c>
     </row>
     <row r="126" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B126" s="93"/>
-      <c r="C126" s="96"/>
-      <c r="D126" s="96"/>
+      <c r="B126" s="94"/>
+      <c r="C126" s="97"/>
+      <c r="D126" s="97"/>
       <c r="E126" s="19">
         <v>7</v>
       </c>
@@ -7409,9 +7717,9 @@
       </c>
     </row>
     <row r="127" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B127" s="93"/>
-      <c r="C127" s="96"/>
-      <c r="D127" s="96"/>
+      <c r="B127" s="94"/>
+      <c r="C127" s="97"/>
+      <c r="D127" s="97"/>
       <c r="E127" s="19">
         <v>8</v>
       </c>
@@ -7435,9 +7743,9 @@
       </c>
     </row>
     <row r="128" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B128" s="93"/>
-      <c r="C128" s="96"/>
-      <c r="D128" s="96"/>
+      <c r="B128" s="94"/>
+      <c r="C128" s="97"/>
+      <c r="D128" s="97"/>
       <c r="E128" s="19">
         <v>9</v>
       </c>
@@ -7461,9 +7769,9 @@
       </c>
     </row>
     <row r="129" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B129" s="93"/>
-      <c r="C129" s="96"/>
-      <c r="D129" s="96"/>
+      <c r="B129" s="94"/>
+      <c r="C129" s="97"/>
+      <c r="D129" s="97"/>
       <c r="E129" s="19">
         <v>10</v>
       </c>
@@ -7487,9 +7795,9 @@
       </c>
     </row>
     <row r="130" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B130" s="94"/>
-      <c r="C130" s="97"/>
-      <c r="D130" s="97"/>
+      <c r="B130" s="95"/>
+      <c r="C130" s="98"/>
+      <c r="D130" s="98"/>
       <c r="E130" s="24">
         <v>11</v>
       </c>
@@ -7513,13 +7821,13 @@
       </c>
     </row>
     <row r="131" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B131" s="98" t="s">
+      <c r="B131" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="C131" s="99" t="s">
+      <c r="C131" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="D131" s="99" t="s">
+      <c r="D131" s="100" t="s">
         <v>29</v>
       </c>
       <c r="E131" s="19">
@@ -7545,9 +7853,9 @@
       </c>
     </row>
     <row r="132" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B132" s="93"/>
-      <c r="C132" s="96"/>
-      <c r="D132" s="96"/>
+      <c r="B132" s="94"/>
+      <c r="C132" s="97"/>
+      <c r="D132" s="97"/>
       <c r="E132" s="19">
         <v>2</v>
       </c>
@@ -7571,9 +7879,9 @@
       </c>
     </row>
     <row r="133" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B133" s="93"/>
-      <c r="C133" s="96"/>
-      <c r="D133" s="96"/>
+      <c r="B133" s="94"/>
+      <c r="C133" s="97"/>
+      <c r="D133" s="97"/>
       <c r="E133" s="19">
         <v>3</v>
       </c>
@@ -7597,9 +7905,9 @@
       </c>
     </row>
     <row r="134" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B134" s="93"/>
-      <c r="C134" s="96"/>
-      <c r="D134" s="96"/>
+      <c r="B134" s="94"/>
+      <c r="C134" s="97"/>
+      <c r="D134" s="97"/>
       <c r="E134" s="19">
         <v>4</v>
       </c>
@@ -7623,9 +7931,9 @@
       </c>
     </row>
     <row r="135" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B135" s="93"/>
-      <c r="C135" s="96"/>
-      <c r="D135" s="96"/>
+      <c r="B135" s="94"/>
+      <c r="C135" s="97"/>
+      <c r="D135" s="97"/>
       <c r="E135" s="19">
         <v>5</v>
       </c>
@@ -7649,9 +7957,9 @@
       </c>
     </row>
     <row r="136" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B136" s="93"/>
-      <c r="C136" s="96"/>
-      <c r="D136" s="96"/>
+      <c r="B136" s="94"/>
+      <c r="C136" s="97"/>
+      <c r="D136" s="97"/>
       <c r="E136" s="19">
         <v>6</v>
       </c>
@@ -7675,9 +7983,9 @@
       </c>
     </row>
     <row r="137" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B137" s="93"/>
-      <c r="C137" s="96"/>
-      <c r="D137" s="96"/>
+      <c r="B137" s="94"/>
+      <c r="C137" s="97"/>
+      <c r="D137" s="97"/>
       <c r="E137" s="19">
         <v>7</v>
       </c>
@@ -7701,9 +8009,9 @@
       </c>
     </row>
     <row r="138" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B138" s="93"/>
-      <c r="C138" s="96"/>
-      <c r="D138" s="96"/>
+      <c r="B138" s="94"/>
+      <c r="C138" s="97"/>
+      <c r="D138" s="97"/>
       <c r="E138" s="19">
         <v>8</v>
       </c>
@@ -7727,9 +8035,9 @@
       </c>
     </row>
     <row r="139" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B139" s="93"/>
-      <c r="C139" s="96"/>
-      <c r="D139" s="96"/>
+      <c r="B139" s="94"/>
+      <c r="C139" s="97"/>
+      <c r="D139" s="97"/>
       <c r="E139" s="19">
         <v>9</v>
       </c>
@@ -7753,9 +8061,9 @@
       </c>
     </row>
     <row r="140" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B140" s="93"/>
-      <c r="C140" s="96"/>
-      <c r="D140" s="96"/>
+      <c r="B140" s="94"/>
+      <c r="C140" s="97"/>
+      <c r="D140" s="97"/>
       <c r="E140" s="19">
         <v>10</v>
       </c>
@@ -7779,9 +8087,9 @@
       </c>
     </row>
     <row r="141" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B141" s="100"/>
-      <c r="C141" s="101"/>
-      <c r="D141" s="101"/>
+      <c r="B141" s="101"/>
+      <c r="C141" s="102"/>
+      <c r="D141" s="102"/>
       <c r="E141" s="20">
         <v>11</v>
       </c>
